--- a/ivent.xlsx
+++ b/ivent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive\Bureau\qr-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF6D431-69C1-454C-9C76-881CB9743A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3416DD2-CE10-4AB7-AD59-30363CF7FCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>islem</t>
+  </si>
+  <si>
+    <t>adem haddada</t>
+  </si>
+  <si>
+    <t>fernan hachim</t>
   </si>
 </sst>
 </file>
@@ -345,9 +351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -356,6 +364,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ivent.xlsx
+++ b/ivent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive\Bureau\qr-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3416DD2-CE10-4AB7-AD59-30363CF7FCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB010DBF-4BA1-4378-9D26-B3979D7DC52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>islem</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>fernan hachim</t>
+  </si>
+  <si>
+    <t>akrem</t>
   </si>
 </sst>
 </file>
@@ -351,17 +354,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -374,6 +377,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
